--- a/quan.java/quan-config/definition/CardConfig.xlsx
+++ b/quan.java/quan-config/definition/CardConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\definition\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\quan\quan.java\quan-config\definition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D08E320-FA9E-4ED0-9447-105B6BF97BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="卡片" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -37,9 +36,6 @@
     <t>Map</t>
   </si>
   <si>
-    <t>注释</t>
-  </si>
-  <si>
     <t>122*2;322*22;455*33</t>
   </si>
   <si>
@@ -103,10 +99,6 @@
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -165,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1113,11 +1105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1134,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1152,154 +1144,128 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>244</v>
+      </c>
+      <c r="G5" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
         <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>244</v>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
